--- a/data/outputs/OR_elsevier/18.xlsx
+++ b/data/outputs/OR_elsevier/18.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS61"/>
+  <dimension ref="A1:BU61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,16 @@
       <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
         </is>
       </c>
     </row>
@@ -905,6 +915,12 @@
           <t>2-s2.0-84954365269</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1120,6 +1136,12 @@
           <t>2-s2.0-84954166193</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1335,6 +1357,12 @@
           <t>2-s2.0-84954374025</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1558,6 +1586,12 @@
           <t>2-s2.0-84954388398</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1764,6 +1798,12 @@
         <is>
           <t>2-s2.0-84954387664</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1972,6 +2012,12 @@
           <t>2-s2.0-84954148253</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2187,6 +2233,12 @@
           <t>2-s2.0-84954377236</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2402,6 +2454,12 @@
           <t>2-s2.0-84954397067</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2624,6 +2682,12 @@
         <is>
           <t>2-s2.0-84954387170</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -2831,6 +2895,12 @@
         <is>
           <t>2-s2.0-84954365268</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3015,6 +3085,12 @@
           <t>2-s2.0-84943587494</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3238,6 +3314,12 @@
           <t>2-s2.0-84943580609</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3453,6 +3535,12 @@
           <t>2-s2.0-84943544817</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3668,6 +3756,12 @@
           <t>2-s2.0-84943586246</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3879,6 +3973,12 @@
           <t>2-s2.0-84943585802</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4094,6 +4194,12 @@
           <t>2-s2.0-84943585960</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4309,6 +4415,12 @@
           <t>2-s2.0-84943581724</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4526,6 +4638,12 @@
           <t>2-s2.0-84943583028</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4741,6 +4859,12 @@
           <t>2-s2.0-84943582039</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4955,6 +5079,12 @@
         <is>
           <t>2-s2.0-84943548330</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -5155,6 +5285,12 @@
           <t>2-s2.0-84938332896</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5394,6 +5530,12 @@
           <t>2-s2.0-84938370357</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5635,6 +5777,12 @@
           <t>2-s2.0-84938415334</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5869,6 +6017,12 @@
         <is>
           <t>2-s2.0-84938419785</t>
         </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -6101,6 +6255,12 @@
           <t>2-s2.0-84938419452</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6340,6 +6500,12 @@
           <t>2-s2.0-84938419798</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6583,6 +6749,12 @@
           <t>2-s2.0-84938418831</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6822,6 +6994,12 @@
           <t>2-s2.0-84938420215</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7061,6 +7239,12 @@
           <t>2-s2.0-84938408158</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7307,6 +7491,12 @@
         <is>
           <t>2-s2.0-84938373865</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -7491,6 +7681,12 @@
           <t>2-s2.0-84929606944</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7698,6 +7894,12 @@
           <t>2-s2.0-84929607185</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7912,6 +8114,12 @@
         <is>
           <t>2-s2.0-84929606660</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -8120,6 +8328,12 @@
           <t>2-s2.0-84929606292</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8330,6 +8544,12 @@
         <is>
           <t>2-s2.0-84929606594</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -8538,6 +8758,12 @@
           <t>2-s2.0-84929606282</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8753,6 +8979,12 @@
           <t>2-s2.0-84929605889</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8968,6 +9200,12 @@
           <t>2-s2.0-84929606307</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9183,6 +9421,12 @@
           <t>2-s2.0-84929605890</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9397,6 +9641,12 @@
         <is>
           <t>2-s2.0-84929606388</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -9581,6 +9831,12 @@
           <t>2-s2.0-84928495501</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9792,6 +10048,12 @@
           <t>2-s2.0-84928474992</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10003,6 +10265,12 @@
           <t>2-s2.0-84928609222</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10218,6 +10486,12 @@
           <t>2-s2.0-84928493170</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10433,6 +10707,12 @@
           <t>2-s2.0-84928612265</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10648,6 +10928,12 @@
           <t>2-s2.0-84928481064</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10867,6 +11153,12 @@
           <t>2-s2.0-84928631101</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11078,6 +11370,12 @@
           <t>2-s2.0-84928493929</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11292,6 +11590,12 @@
         <is>
           <t>2-s2.0-84928598946</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -11499,6 +11803,12 @@
         <is>
           <t>2-s2.0-84928487594</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -11683,6 +11993,12 @@
           <t>2-s2.0-84929309800</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11888,6 +12204,12 @@
           <t>2-s2.0-84929301620</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12095,6 +12417,12 @@
           <t>2-s2.0-84929339008</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12318,6 +12646,12 @@
           <t>2-s2.0-84929339855</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12540,6 +12874,12 @@
         <is>
           <t>2-s2.0-84929518862</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -12748,6 +13088,12 @@
           <t>2-s2.0-84929323994</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12962,6 +13308,12 @@
         <is>
           <t>2-s2.0-84929322718</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -13170,6 +13522,12 @@
           <t>2-s2.0-84929303939</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13381,6 +13739,12 @@
           <t>2-s2.0-84929327261</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13596,6 +13960,12 @@
           <t>2-s2.0-84929303492</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
